--- a/王者喵喵/配置表（差科技-随机事件-搞事情配置表）/建筑配置_ building.xlsx
+++ b/王者喵喵/配置表（差科技-随机事件-搞事情配置表）/建筑配置_ building.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">building!$C$2:$L$1904</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -168,46 +168,11 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>1_1|2_10|3_10</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_1|2_100|3_30</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_1|2_1000|3_500</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_1|2_5000|3_3000</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_1|2_10000|3_6000</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_1|2_50000|3_30000</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>Produce_wood</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Produce_ore</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级消耗资源
-1-体力
-2-金币
-3-木材
-4-矿石
-5-圣水
-以“|”号间隔
-（1_数量|2_数量|3_数量）</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -219,52 +184,70 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>1_1|2_10|4_10</t>
+    <t>升级消耗资源
+70001-体力
+70002-金币
+70003-木材
+70004-矿石
+70005-圣水
+70006-钻石
+以“|”号间隔
+（1_数量|2_数量|3_数量）</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>1_1|2_100|4_30</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <t>70001_1|70002_10|70003_10</t>
   </si>
   <si>
-    <t>1_1|2_1000|4_500</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <t>70001_1|70002_100|70003_30</t>
   </si>
   <si>
-    <t>1_1|2_5000|4_3000</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <t>70001_1|70002_1000|70003_500</t>
   </si>
   <si>
-    <t>1_1|2_10000|4_6000</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <t>70001_1|70002_5000|70003_3000</t>
   </si>
   <si>
-    <t>1_1|2_50000|4_30000</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <t>70001_1|70002_10000|70003_6000</t>
   </si>
   <si>
-    <t>1_1|2_10|3_30|4_30</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <t>70001_1|70002_50000|70003_30000</t>
   </si>
   <si>
-    <t>1_1|2_500|3_800|4_800</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <t>70001_1|70002_10|70004_10</t>
   </si>
   <si>
-    <t>1_1|2_1000|3_2000|4_2000</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <t>70001_1|70002_100|70004_30</t>
   </si>
   <si>
-    <t>1_1|2_5000|3_5000|4_5000</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <t>70001_1|70002_1000|70004_500</t>
   </si>
   <si>
-    <t>1_1|2_10000|3_20000|4_20000</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <t>70001_1|70002_5000|70004_3000</t>
   </si>
   <si>
-    <t>1_1|2_50000|3_50000|4_50000</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <t>70001_1|70002_10000|70004_6000</t>
+  </si>
+  <si>
+    <t>70001_1|70002_50000|70004_30000</t>
+  </si>
+  <si>
+    <t>70001_1|70002_10|70003_30|70004_30</t>
+  </si>
+  <si>
+    <t>70001_1|70002_500|70003_800|70004_800</t>
+  </si>
+  <si>
+    <t>70001_1|70002_1000|70003_2000|70004_2000</t>
+  </si>
+  <si>
+    <t>70001_1|70002_5000|70003_5000|70004_5000</t>
+  </si>
+  <si>
+    <t>70001_1|70002_10000|70003_20000|70004_20000</t>
+  </si>
+  <si>
+    <t>70001_1|70002_50000|70003_50000|70004_50000</t>
   </si>
 </sst>
 </file>
@@ -964,7 +947,7 @@
   <dimension ref="A1:L1925"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -974,7 +957,7 @@
     <col min="3" max="5" width="14.75" style="13" customWidth="1"/>
     <col min="6" max="7" width="20.125" style="13" customWidth="1"/>
     <col min="8" max="8" width="15.25" style="13" customWidth="1"/>
-    <col min="9" max="9" width="28.375" style="13" customWidth="1"/>
+    <col min="9" max="9" width="44.25" style="13" customWidth="1"/>
     <col min="10" max="10" width="14.75" style="13" customWidth="1"/>
     <col min="11" max="11" width="16.375" style="14" customWidth="1"/>
     <col min="12" max="16384" width="9" style="13"/>
@@ -1000,7 +983,7 @@
         <v>25</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>17</v>
@@ -1009,7 +992,7 @@
         <v>33</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J2" s="15" t="s">
         <v>4</v>
@@ -1031,10 +1014,10 @@
         <v>13</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>15</v>
@@ -1055,7 +1038,7 @@
         <v>10001</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C4" s="30">
         <v>1</v>
@@ -1076,7 +1059,7 @@
         <v>600</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J4" s="30">
         <v>10001</v>
@@ -1109,7 +1092,7 @@
         <v>3000</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J5" s="30">
         <v>10002</v>
@@ -1142,7 +1125,7 @@
         <v>50000</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J6" s="30">
         <v>10003</v>
@@ -1175,7 +1158,7 @@
         <v>200000</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J7" s="30">
         <v>10004</v>
@@ -1208,7 +1191,7 @@
         <v>1000000</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J8" s="30">
         <v>10005</v>
@@ -1241,7 +1224,7 @@
         <v>5000000</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J9" s="30">
         <v>10006</v>
@@ -1545,7 +1528,7 @@
       </c>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" s="34" customFormat="1">
+    <row r="19" spans="1:11" s="34" customFormat="1" ht="27">
       <c r="A19" s="29">
         <v>30002</v>
       </c>
@@ -1578,7 +1561,7 @@
       </c>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" s="34" customFormat="1">
+    <row r="20" spans="1:11" s="34" customFormat="1" ht="27">
       <c r="A20" s="29">
         <v>30003</v>
       </c>
@@ -1611,7 +1594,7 @@
       </c>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" s="34" customFormat="1">
+    <row r="21" spans="1:11" s="34" customFormat="1" ht="27">
       <c r="A21" s="29">
         <v>30004</v>
       </c>
@@ -1644,7 +1627,7 @@
       </c>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" s="34" customFormat="1">
+    <row r="22" spans="1:11" s="34" customFormat="1" ht="27">
       <c r="A22" s="29">
         <v>30005</v>
       </c>
@@ -1677,7 +1660,7 @@
       </c>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" s="34" customFormat="1">
+    <row r="23" spans="1:11" s="34" customFormat="1" ht="27">
       <c r="A23" s="29">
         <v>30006</v>
       </c>
